--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$44</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Vegetables</t>
   </si>
@@ -131,6 +134,24 @@
   </si>
   <si>
     <t>berenjena</t>
+  </si>
+  <si>
+    <t>cebolla</t>
+  </si>
+  <si>
+    <t>lechuga repollada</t>
+  </si>
+  <si>
+    <t>lechuga crespa</t>
+  </si>
+  <si>
+    <t>lechuga morada</t>
+  </si>
+  <si>
+    <t>lechuga mantecosa</t>
+  </si>
+  <si>
+    <t>Código</t>
   </si>
 </sst>
 </file>
@@ -479,18 +500,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -630,15 +657,15 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -646,7 +673,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -654,7 +681,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -662,7 +689,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -670,7 +697,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -678,47 +705,47 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -726,7 +753,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -734,7 +761,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -742,7 +769,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -750,7 +777,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -758,7 +785,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -766,7 +793,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B36">
         <v>4</v>
@@ -774,7 +801,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -782,7 +809,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B38">
         <v>4</v>
@@ -790,13 +817,58 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>37</v>
       </c>
-      <c r="B39">
+      <c r="B44">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B44">
+    <sortState ref="A2:B44">
+      <sortCondition ref="B1:B44"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>